--- a/public/data/data.xlsx
+++ b/public/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/j_caraballo_uniandes_edu_co/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergiofranco/Documents/uniandes/bi/TableroApp/public/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="516" documentId="8_{E8C3046E-270B-4E4F-BF5A-81A5FCB33380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E863CE6-7430-47D0-828D-21D0A620BB28}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC0FF7E-1BCF-7547-8CF6-0F231E35372B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="45" r:id="rId1"/>
@@ -166,9 +166,6 @@
     <t>PENTA MENOR DE UN AÑO.2%</t>
   </si>
   <si>
-    <t>FLU DE 6 MESES A 11 MESES  2da dosis</t>
-  </si>
-  <si>
     <t>FLU DE 6 MESES A 11 MESES 2da dosis%</t>
   </si>
   <si>
@@ -285,13 +282,16 @@
   <si>
     <t>HA 1 AÑO%</t>
   </si>
+  <si>
+    <t>FLU DE 6 MESES A 11 MESES 2da dosis</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1274,10 +1274,10 @@
     <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
@@ -1297,36 +1297,36 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
@@ -1334,30 +1334,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="123">
@@ -1529,41 +1529,44 @@
     <xf numFmtId="167" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="59" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="117">
-    <cellStyle name="20% - Énfasis1" xfId="1" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="2" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="3" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="4" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="5" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="6" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="7" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="8" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="9" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="10" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="11" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="12" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="13" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="14" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="15" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="16" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="17" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="18" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="19" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="20" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="21" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="22" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="48" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="23" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="24" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="25" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="27" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="28" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="29" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="30" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="31" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="4" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="5" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="6" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="7" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="8" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="9" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="10" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="11" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="12" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="13" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="14" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="15" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="16" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="17" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="18" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="24" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="25" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="27" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="28" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="29" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="31" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="20" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="21" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="46" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="19" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="48" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="49" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="50" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="23" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="30" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="22" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Millares 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
     <cellStyle name="Millares 2 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
     <cellStyle name="Millares 2 2 2" xfId="82" xr:uid="{D4A2DCB6-2E0E-4700-A63A-AD78B7B032B2}"/>
@@ -1637,24 +1640,224 @@
     <cellStyle name="Normal 5 7" xfId="90" xr:uid="{16385D55-15F1-4DDD-AD2C-24F3F141DB02}"/>
     <cellStyle name="Normal 6" xfId="80" xr:uid="{E4DD559D-693A-4037-8980-A3768C83DB60}"/>
     <cellStyle name="Normal_COBERTURAS DEPARTAMENTALES y MUNICIPALES_AÑO2009" xfId="41" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="Notas" xfId="42" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="42" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="44" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Porcentual 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
     <cellStyle name="Porcentual 2 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
     <cellStyle name="Porcentual 2 2 2" xfId="95" xr:uid="{586E7857-692F-44DF-B5FC-4A517090BC69}"/>
     <cellStyle name="Porcentual 2 3" xfId="88" xr:uid="{4EA3BF83-300F-41A4-989F-F752E57F6B1B}"/>
-    <cellStyle name="Salida" xfId="44" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="45" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="46" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="47" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="49" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="50" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="47" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="51" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="45" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="186">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1703,6 +1906,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1731,13 +1948,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF3300"/>
         </patternFill>
       </fill>
@@ -1746,6 +1956,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1773,7 +1990,210 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1878,7 +2298,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFF3300"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1899,91 +2319,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2012,13 +2348,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2074,125 +2403,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -2214,7 +2424,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2229,426 +2439,6 @@
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2746,132 +2536,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF3300"/>
         </patternFill>
       </fill>
@@ -2894,13 +2558,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2950,6 +2607,349 @@
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3263,16 +3263,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E12388D-4178-45B7-ABD5-51689C1B8335}">
   <dimension ref="A1:AM39"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
@@ -3301,97 +3301,97 @@
         <v>40</v>
       </c>
       <c r="J1" s="114" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="114" t="s">
+      <c r="L1" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="114" t="s">
+      <c r="M1" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="114" t="s">
+      <c r="N1" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="114" t="s">
+      <c r="O1" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="114" t="s">
+      <c r="P1" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="114" t="s">
+      <c r="Q1" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="114" t="s">
+      <c r="R1" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="114" t="s">
+      <c r="S1" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="114" t="s">
+      <c r="T1" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="114" t="s">
+      <c r="U1" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="114" t="s">
+      <c r="V1" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="V1" s="114" t="s">
+      <c r="W1" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="114" t="s">
+      <c r="X1" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="X1" s="114" t="s">
+      <c r="Y1" s="114" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="114" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="114" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z1" s="114" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA1" s="114" t="s">
+      <c r="AB1" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" s="114" t="s">
+      <c r="AC1" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" s="114" t="s">
+      <c r="AD1" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="114" t="s">
+      <c r="AE1" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="AE1" s="114" t="s">
+      <c r="AF1" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="AF1" s="114" t="s">
+      <c r="AG1" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="AG1" s="114" t="s">
+      <c r="AH1" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="AH1" s="114" t="s">
+      <c r="AI1" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="AI1" s="114" t="s">
+      <c r="AJ1" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="AJ1" s="114" t="s">
+      <c r="AK1" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="AK1" s="114" t="s">
+      <c r="AL1" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="AL1" s="114" t="s">
+      <c r="AM1" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="AM1" s="114" t="s">
-        <v>68</v>
-      </c>
     </row>
-    <row r="2" spans="1:39" ht="24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A2" s="101">
         <v>91</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A3" s="104" t="s">
         <v>3</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>42897</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A4" s="104">
         <v>81</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A5" s="104" t="s">
         <v>6</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>5659</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A6" s="104" t="s">
         <v>8</v>
       </c>
@@ -3991,12 +3991,12 @@
         <v>11279</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A7" s="104">
         <v>11</v>
       </c>
       <c r="B7" s="106" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7">
         <v>111497</v>
@@ -4111,7 +4111,7 @@
         <v>60481</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A8" s="104">
         <v>13</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>11664</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A9" s="104">
         <v>13001</v>
       </c>
@@ -4351,12 +4351,12 @@
         <v>14193</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A10" s="104">
         <v>15</v>
       </c>
       <c r="B10" s="108" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10">
         <v>18231</v>
@@ -4471,7 +4471,7 @@
         <v>11105</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A11" s="104">
         <v>17</v>
       </c>
@@ -4591,12 +4591,12 @@
         <v>4809</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A12" s="104">
         <v>18</v>
       </c>
       <c r="B12" s="106" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12">
         <v>10671</v>
@@ -4711,7 +4711,7 @@
         <v>4994</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A13" s="104">
         <v>85</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A14" s="104">
         <v>19</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>9365</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A15" s="104">
         <v>20</v>
       </c>
@@ -5071,12 +5071,12 @@
         <v>13637</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A16" s="104">
         <v>25</v>
       </c>
       <c r="B16" s="106" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16">
         <v>11126</v>
@@ -5191,12 +5191,12 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A17" s="104">
         <v>23</v>
       </c>
       <c r="B17" s="106" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17">
         <v>34998</v>
@@ -5311,7 +5311,7 @@
         <v>18195</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A18" s="104">
         <v>25</v>
       </c>
@@ -5431,12 +5431,12 @@
         <v>10326</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A19" s="104">
         <v>94</v>
       </c>
       <c r="B19" s="106" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19">
         <v>842</v>
@@ -5551,7 +5551,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A20" s="104">
         <v>95</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A21" s="104">
         <v>41</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>12837</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A22" s="104">
         <v>44</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>5746</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A23" s="104">
         <v>47</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>8907</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A24" s="104">
         <v>47001</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>5323</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A25" s="104">
         <v>50</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>7519</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A26" s="104">
         <v>52</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>12091</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A27" s="104">
         <v>54</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>8419</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A28" s="104">
         <v>86</v>
       </c>
@@ -6631,12 +6631,12 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A29" s="104">
         <v>63</v>
       </c>
       <c r="B29" s="106" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29">
         <v>6438</v>
@@ -6751,7 +6751,7 @@
         <v>3906</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A30" s="104">
         <v>66</v>
       </c>
@@ -6871,12 +6871,12 @@
         <v>5126</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A31" s="104">
         <v>88</v>
       </c>
       <c r="B31" s="106" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31">
         <v>930</v>
@@ -6991,7 +6991,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A32" s="104">
         <v>68</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>19238</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A33" s="104">
         <v>70</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>11714</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A34" s="104">
         <v>73</v>
       </c>
@@ -7351,12 +7351,12 @@
         <v>3740</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" ht="39" x14ac:dyDescent="0.15">
       <c r="A35" s="104">
         <v>76</v>
       </c>
       <c r="B35" s="108" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35">
         <v>61503</v>
@@ -7471,7 +7471,7 @@
         <v>50612</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A36" s="104" t="s">
         <v>30</v>
       </c>
@@ -7591,12 +7591,12 @@
         <v>2905</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A37" s="104">
         <v>97</v>
       </c>
       <c r="B37" s="108" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37">
         <v>902</v>
@@ -7711,7 +7711,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A38" s="110">
         <v>99</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:39" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="103"/>
       <c r="B39" s="112" t="s">
         <v>33</v>
@@ -7958,13 +7958,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0202CD8E-8BD7-4E26-92B3-DFA2A3BCAFDF}">
   <dimension ref="A1:AM39"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
@@ -7993,97 +7993,97 @@
         <v>40</v>
       </c>
       <c r="J1" s="114" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="114" t="s">
+      <c r="L1" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="114" t="s">
+      <c r="M1" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="114" t="s">
+      <c r="N1" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="114" t="s">
+      <c r="O1" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="114" t="s">
+      <c r="P1" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="114" t="s">
+      <c r="Q1" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="114" t="s">
+      <c r="R1" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="114" t="s">
+      <c r="S1" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="114" t="s">
+      <c r="T1" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="114" t="s">
+      <c r="U1" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="114" t="s">
+      <c r="V1" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="V1" s="116" t="s">
+      <c r="W1" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="118" t="s">
+      <c r="X1" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="X1" s="117" t="s">
+      <c r="Y1" s="114" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="114" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="114" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z1" s="114" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA1" s="114" t="s">
+      <c r="AB1" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" s="114" t="s">
+      <c r="AC1" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" s="114" t="s">
+      <c r="AD1" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="114" t="s">
+      <c r="AE1" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="AE1" s="114" t="s">
+      <c r="AF1" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="AF1" s="114" t="s">
+      <c r="AG1" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="AG1" s="114" t="s">
+      <c r="AH1" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="AH1" s="114" t="s">
+      <c r="AI1" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="AI1" s="114" t="s">
+      <c r="AJ1" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="AJ1" s="114" t="s">
+      <c r="AK1" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="AK1" s="114" t="s">
+      <c r="AL1" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="AL1" s="114" t="s">
+      <c r="AM1" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="AM1" s="114" t="s">
-        <v>68</v>
-      </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A2" s="101">
         <v>91</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A3" s="104" t="s">
         <v>3</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>53883</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A4" s="104">
         <v>81</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A5" s="104" t="s">
         <v>6</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>7201</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A6" s="104" t="s">
         <v>8</v>
       </c>
@@ -8683,12 +8683,12 @@
         <v>12956</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A7" s="104">
         <v>11</v>
       </c>
       <c r="B7" s="106" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7">
         <v>108426</v>
@@ -8803,7 +8803,7 @@
         <v>60770</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A8" s="104">
         <v>13</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>11218</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A9" s="104">
         <v>13001</v>
       </c>
@@ -9043,12 +9043,12 @@
         <v>14083</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A10" s="104">
         <v>15</v>
       </c>
       <c r="B10" s="108" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10">
         <v>16944</v>
@@ -9163,7 +9163,7 @@
         <v>11126</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A11" s="104">
         <v>17</v>
       </c>
@@ -9283,12 +9283,12 @@
         <v>6017</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A12" s="104">
         <v>18</v>
       </c>
       <c r="B12" s="106" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12">
         <v>9738</v>
@@ -9403,7 +9403,7 @@
         <v>5755</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A13" s="104">
         <v>85</v>
       </c>
@@ -9523,7 +9523,7 @@
         <v>4178</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A14" s="104">
         <v>19</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>11184</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A15" s="104">
         <v>20</v>
       </c>
@@ -9763,12 +9763,12 @@
         <v>16278</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A16" s="104">
         <v>25</v>
       </c>
       <c r="B16" s="106" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16">
         <v>11216</v>
@@ -9883,12 +9883,12 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A17" s="104">
         <v>23</v>
       </c>
       <c r="B17" s="106" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17">
         <v>32878</v>
@@ -10003,7 +10003,7 @@
         <v>19343</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A18" s="104">
         <v>25</v>
       </c>
@@ -10123,12 +10123,12 @@
         <v>13983</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A19" s="104">
         <v>94</v>
       </c>
       <c r="B19" s="106" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19">
         <v>777</v>
@@ -10243,7 +10243,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A20" s="104">
         <v>95</v>
       </c>
@@ -10363,7 +10363,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A21" s="104">
         <v>41</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>12690</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A22" s="104">
         <v>44</v>
       </c>
@@ -10603,7 +10603,7 @@
         <v>8678</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A23" s="104">
         <v>47</v>
       </c>
@@ -10723,7 +10723,7 @@
         <v>9285</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A24" s="104">
         <v>47001</v>
       </c>
@@ -10843,7 +10843,7 @@
         <v>4411</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A25" s="104">
         <v>50</v>
       </c>
@@ -10963,7 +10963,7 @@
         <v>8044</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A26" s="104">
         <v>52</v>
       </c>
@@ -11083,7 +11083,7 @@
         <v>11973</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A27" s="104">
         <v>54</v>
       </c>
@@ -11203,7 +11203,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A28" s="104">
         <v>86</v>
       </c>
@@ -11323,12 +11323,12 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A29" s="104">
         <v>63</v>
       </c>
       <c r="B29" s="106" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29">
         <v>5902</v>
@@ -11443,7 +11443,7 @@
         <v>3714</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A30" s="104">
         <v>66</v>
       </c>
@@ -11563,12 +11563,12 @@
         <v>8312</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A31" s="104">
         <v>88</v>
       </c>
       <c r="B31" s="106" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31">
         <v>900</v>
@@ -11683,7 +11683,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A32" s="104">
         <v>68</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>19943</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A33" s="104">
         <v>70</v>
       </c>
@@ -11923,7 +11923,7 @@
         <v>10764</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A34" s="104">
         <v>73</v>
       </c>
@@ -12043,12 +12043,12 @@
         <v>6999</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A35" s="104">
         <v>76</v>
       </c>
       <c r="B35" s="108" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35">
         <v>59154</v>
@@ -12163,7 +12163,7 @@
         <v>28358</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A36" s="104" t="s">
         <v>30</v>
       </c>
@@ -12283,12 +12283,12 @@
         <v>3230</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A37" s="104">
         <v>97</v>
       </c>
       <c r="B37" s="108" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37">
         <v>906</v>
@@ -12403,7 +12403,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="110">
         <v>99</v>
       </c>
@@ -12523,7 +12523,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="115"/>
       <c r="B39" s="112" t="s">
         <v>33</v>
@@ -12650,13 +12650,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976D4F87-B17D-4CBB-A21C-1F233E6E6226}">
   <dimension ref="A1:AM39"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
@@ -12685,97 +12685,97 @@
         <v>40</v>
       </c>
       <c r="J1" s="114" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="114" t="s">
+      <c r="L1" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="114" t="s">
+      <c r="M1" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="114" t="s">
+      <c r="N1" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="114" t="s">
+      <c r="O1" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="114" t="s">
+      <c r="P1" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="114" t="s">
+      <c r="Q1" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="114" t="s">
+      <c r="R1" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="114" t="s">
+      <c r="S1" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="114" t="s">
+      <c r="T1" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="114" t="s">
+      <c r="U1" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="114" t="s">
+      <c r="V1" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="V1" s="116" t="s">
+      <c r="W1" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="118" t="s">
+      <c r="X1" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="X1" s="117" t="s">
+      <c r="Y1" s="114" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="114" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="114" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z1" s="114" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA1" s="114" t="s">
+      <c r="AB1" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" s="114" t="s">
+      <c r="AC1" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" s="114" t="s">
+      <c r="AD1" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="114" t="s">
+      <c r="AE1" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="AE1" s="114" t="s">
+      <c r="AF1" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="AF1" s="114" t="s">
+      <c r="AG1" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="AG1" s="114" t="s">
+      <c r="AH1" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="AH1" s="114" t="s">
+      <c r="AI1" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="AI1" s="114" t="s">
+      <c r="AJ1" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="AJ1" s="114" t="s">
+      <c r="AK1" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="AK1" s="114" t="s">
+      <c r="AL1" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="AL1" s="114" t="s">
+      <c r="AM1" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="AM1" s="114" t="s">
-        <v>68</v>
-      </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A2" s="101">
         <v>91</v>
       </c>
@@ -12895,7 +12895,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A3" s="104" t="s">
         <v>3</v>
       </c>
@@ -13015,7 +13015,7 @@
         <v>54930</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A4" s="104">
         <v>81</v>
       </c>
@@ -13135,7 +13135,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A5" s="104" t="s">
         <v>6</v>
       </c>
@@ -13255,7 +13255,7 @@
         <v>9073</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A6" s="104" t="s">
         <v>8</v>
       </c>
@@ -13375,12 +13375,12 @@
         <v>14731</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A7" s="104">
         <v>11</v>
       </c>
       <c r="B7" s="106" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7">
         <v>105191</v>
@@ -13495,7 +13495,7 @@
         <v>71240</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A8" s="104">
         <v>13</v>
       </c>
@@ -13615,7 +13615,7 @@
         <v>12255</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A9" s="104">
         <v>13001</v>
       </c>
@@ -13735,12 +13735,12 @@
         <v>15040</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A10" s="104">
         <v>15</v>
       </c>
       <c r="B10" s="108" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10">
         <v>16432</v>
@@ -13855,7 +13855,7 @@
         <v>12258</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A11" s="104">
         <v>17</v>
       </c>
@@ -13975,12 +13975,12 @@
         <v>7119</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A12" s="104">
         <v>18</v>
       </c>
       <c r="B12" s="106" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12">
         <v>8825</v>
@@ -14095,7 +14095,7 @@
         <v>5637</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A13" s="104">
         <v>85</v>
       </c>
@@ -14215,7 +14215,7 @@
         <v>4649</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A14" s="104">
         <v>19</v>
       </c>
@@ -14335,7 +14335,7 @@
         <v>12834</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A15" s="104">
         <v>20</v>
       </c>
@@ -14455,12 +14455,12 @@
         <v>13968</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A16" s="104">
         <v>25</v>
       </c>
       <c r="B16" s="106" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16">
         <v>10908</v>
@@ -14575,12 +14575,12 @@
         <v>5324</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A17" s="104">
         <v>23</v>
       </c>
       <c r="B17" s="106" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17">
         <v>32530</v>
@@ -14695,7 +14695,7 @@
         <v>20746</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A18" s="104">
         <v>25</v>
       </c>
@@ -14815,12 +14815,12 @@
         <v>15386</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A19" s="104">
         <v>94</v>
       </c>
       <c r="B19" s="106" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19">
         <v>781</v>
@@ -14935,7 +14935,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A20" s="104">
         <v>95</v>
       </c>
@@ -15055,7 +15055,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A21" s="104">
         <v>41</v>
       </c>
@@ -15175,7 +15175,7 @@
         <v>13513</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A22" s="104">
         <v>44</v>
       </c>
@@ -15295,7 +15295,7 @@
         <v>10849</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A23" s="104">
         <v>47</v>
       </c>
@@ -15415,7 +15415,7 @@
         <v>9776</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A24" s="104">
         <v>47001</v>
       </c>
@@ -15535,7 +15535,7 @@
         <v>5774</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A25" s="104">
         <v>50</v>
       </c>
@@ -15655,7 +15655,7 @@
         <v>8756</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A26" s="104">
         <v>52</v>
       </c>
@@ -15775,7 +15775,7 @@
         <v>11690</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A27" s="104">
         <v>54</v>
       </c>
@@ -15895,7 +15895,7 @@
         <v>13018</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A28" s="104">
         <v>86</v>
       </c>
@@ -16015,12 +16015,12 @@
         <v>3172</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A29" s="104">
         <v>63</v>
       </c>
       <c r="B29" s="106" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29">
         <v>5813</v>
@@ -16135,7 +16135,7 @@
         <v>4374</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A30" s="104">
         <v>66</v>
       </c>
@@ -16255,12 +16255,12 @@
         <v>6754</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A31" s="104">
         <v>88</v>
       </c>
       <c r="B31" s="106" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31">
         <v>919</v>
@@ -16375,7 +16375,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A32" s="104">
         <v>68</v>
       </c>
@@ -16495,7 +16495,7 @@
         <v>21268</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A33" s="104">
         <v>70</v>
       </c>
@@ -16615,7 +16615,7 @@
         <v>10431</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A34" s="104">
         <v>73</v>
       </c>
@@ -16735,12 +16735,12 @@
         <v>8437</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A35" s="104">
         <v>76</v>
       </c>
       <c r="B35" s="108" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35">
         <v>58592</v>
@@ -16855,7 +16855,7 @@
         <v>30554</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" ht="26" x14ac:dyDescent="0.15">
       <c r="A36" s="104" t="s">
         <v>30</v>
       </c>
@@ -16975,12 +16975,12 @@
         <v>3787</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A37" s="104">
         <v>97</v>
       </c>
       <c r="B37" s="108" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37">
         <v>861</v>
@@ -17095,7 +17095,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A38" s="110">
         <v>99</v>
       </c>
@@ -17215,7 +17215,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:39" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="115"/>
       <c r="B39" s="112" t="s">
         <v>33</v>
@@ -17342,15 +17342,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC509625-6FF3-46E2-AEE0-0CECC4D2EF3A}">
   <dimension ref="A1:AM40"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
@@ -17358,38 +17358,38 @@
     <col min="8" max="8" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="26.5" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.5" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="14" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="12" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.5" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="31.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
@@ -17418,97 +17418,97 @@
         <v>40</v>
       </c>
       <c r="J1" s="114" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="114" t="s">
+      <c r="L1" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="114" t="s">
+      <c r="M1" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="114" t="s">
+      <c r="N1" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="114" t="s">
+      <c r="O1" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="114" t="s">
+      <c r="P1" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="114" t="s">
+      <c r="Q1" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="114" t="s">
+      <c r="R1" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="114" t="s">
+      <c r="S1" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="114" t="s">
+      <c r="T1" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="114" t="s">
+      <c r="U1" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="114" t="s">
+      <c r="V1" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="V1" s="114" t="s">
+      <c r="W1" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="114" t="s">
+      <c r="X1" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="X1" s="114" t="s">
+      <c r="Y1" s="114" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="114" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="114" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z1" s="114" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA1" s="114" t="s">
+      <c r="AB1" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" s="114" t="s">
+      <c r="AC1" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" s="114" t="s">
+      <c r="AD1" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="114" t="s">
+      <c r="AE1" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="AE1" s="114" t="s">
+      <c r="AF1" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="AF1" s="114" t="s">
+      <c r="AG1" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="AG1" s="114" t="s">
+      <c r="AH1" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="AH1" s="114" t="s">
+      <c r="AI1" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="AI1" s="114" t="s">
+      <c r="AJ1" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="AJ1" s="114" t="s">
+      <c r="AK1" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="AK1" s="114" t="s">
+      <c r="AL1" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="AL1" s="114" t="s">
+      <c r="AM1" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="AM1" s="114" t="s">
-        <v>68</v>
-      </c>
     </row>
-    <row r="2" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="101">
         <v>91</v>
       </c>
@@ -17643,7 +17643,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="104" t="s">
         <v>3</v>
       </c>
@@ -17778,7 +17778,7 @@
         <v>52747</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="104">
         <v>81</v>
       </c>
@@ -17913,7 +17913,7 @@
         <v>3280</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="104" t="s">
         <v>6</v>
       </c>
@@ -18048,7 +18048,7 @@
         <v>9895</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="104" t="s">
         <v>8</v>
       </c>
@@ -18183,12 +18183,12 @@
         <v>14458</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="104">
         <v>11</v>
       </c>
       <c r="B7" s="106" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="6">
         <v>104937</v>
@@ -18318,7 +18318,7 @@
         <v>66768</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="104">
         <v>13</v>
       </c>
@@ -18453,7 +18453,7 @@
         <v>12832</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="104">
         <v>13001</v>
       </c>
@@ -18588,12 +18588,12 @@
         <v>14288</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="104">
         <v>15</v>
       </c>
       <c r="B10" s="108" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="6">
         <v>16003</v>
@@ -18723,7 +18723,7 @@
         <v>11098</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="104">
         <v>17</v>
       </c>
@@ -18858,12 +18858,12 @@
         <v>5690</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="104">
         <v>18</v>
       </c>
       <c r="B12" s="106" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="6">
         <v>8488</v>
@@ -18993,7 +18993,7 @@
         <v>5558</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="104">
         <v>85</v>
       </c>
@@ -19128,7 +19128,7 @@
         <v>4476</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="104">
         <v>19</v>
       </c>
@@ -19263,7 +19263,7 @@
         <v>12807</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="104">
         <v>20</v>
       </c>
@@ -19398,12 +19398,12 @@
         <v>14683</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="104">
         <v>25</v>
       </c>
       <c r="B16" s="106" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="6">
         <v>11015</v>
@@ -19533,12 +19533,12 @@
         <v>5691</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="104">
         <v>23</v>
       </c>
       <c r="B17" s="106" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="6">
         <v>31722</v>
@@ -19668,7 +19668,7 @@
         <v>20546</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="104">
         <v>25</v>
       </c>
@@ -19803,12 +19803,12 @@
         <v>17094</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="104">
         <v>94</v>
       </c>
       <c r="B19" s="106" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" s="6">
         <v>833</v>
@@ -19938,7 +19938,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="104">
         <v>95</v>
       </c>
@@ -20073,7 +20073,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="104">
         <v>41</v>
       </c>
@@ -20208,7 +20208,7 @@
         <v>13695</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="104">
         <v>44</v>
       </c>
@@ -20343,7 +20343,7 @@
         <v>10995</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="104">
         <v>47</v>
       </c>
@@ -20478,7 +20478,7 @@
         <v>9739</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="104">
         <v>47001</v>
       </c>
@@ -20613,7 +20613,7 @@
         <v>5379</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="104">
         <v>50</v>
       </c>
@@ -20748,7 +20748,7 @@
         <v>8367</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="104">
         <v>52</v>
       </c>
@@ -20883,7 +20883,7 @@
         <v>12700</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="104">
         <v>54</v>
       </c>
@@ -21018,7 +21018,7 @@
         <v>14159</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="104">
         <v>86</v>
       </c>
@@ -21153,12 +21153,12 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="104">
         <v>63</v>
       </c>
       <c r="B29" s="106" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" s="6">
         <v>5966</v>
@@ -21288,7 +21288,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="104">
         <v>66</v>
       </c>
@@ -21423,12 +21423,12 @@
         <v>5969</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="104">
         <v>88</v>
       </c>
       <c r="B31" s="106" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" s="6">
         <v>893</v>
@@ -21558,7 +21558,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="104">
         <v>68</v>
       </c>
@@ -21693,7 +21693,7 @@
         <v>20309</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="104">
         <v>70</v>
       </c>
@@ -21828,7 +21828,7 @@
         <v>11281</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="104">
         <v>73</v>
       </c>
@@ -21963,12 +21963,12 @@
         <v>9212</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="104">
         <v>76</v>
       </c>
       <c r="B35" s="108" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="6">
         <v>57449</v>
@@ -22098,7 +22098,7 @@
         <v>28213</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="104" t="s">
         <v>30</v>
       </c>
@@ -22233,12 +22233,12 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="104">
         <v>97</v>
       </c>
       <c r="B37" s="108" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" s="6">
         <v>831</v>
@@ -22368,7 +22368,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="110">
         <v>99</v>
       </c>
@@ -22503,7 +22503,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="103"/>
       <c r="B39" s="112" t="s">
         <v>33</v>
@@ -22657,43 +22657,43 @@
         <v>435915</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.15">
       <c r="K40" s="44"/>
       <c r="V40" s="44"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E39">
-    <cfRule type="cellIs" dxfId="185" priority="59" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="185" priority="60" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>$C$53</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="59" stopIfTrue="1" operator="between">
       <formula>$C$54</formula>
       <formula>$D$54</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="58" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="183" priority="58" stopIfTrue="1" operator="between">
       <formula>$C$55</formula>
       <formula>$D$55</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="57" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="182" priority="57" stopIfTrue="1" operator="between">
       <formula>$C$56</formula>
       <formula>$D$56</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="56" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="181" priority="56" stopIfTrue="1" operator="between">
       <formula>$C$57</formula>
       <formula>$D$57</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="55" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="180" priority="55" stopIfTrue="1" operator="between">
       <formula>$C$58</formula>
       <formula>$D$58</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="60" stopIfTrue="1" operator="greaterThanOrEqual">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G39">
+    <cfRule type="cellIs" dxfId="179" priority="54" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>$C$53</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G39">
-    <cfRule type="cellIs" dxfId="179" priority="53" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="178" priority="53" stopIfTrue="1" operator="between">
       <formula>$C$54</formula>
       <formula>$D$54</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="54" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>$C$53</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="177" priority="52" stopIfTrue="1" operator="between">
       <formula>$C$55</formula>
@@ -22713,28 +22713,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I39">
-    <cfRule type="cellIs" dxfId="173" priority="43" stopIfTrue="1" operator="between">
-      <formula>$C$58</formula>
-      <formula>$D$58</formula>
+    <cfRule type="cellIs" dxfId="173" priority="48" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>$C$53</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="46" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="172" priority="47" stopIfTrue="1" operator="between">
+      <formula>$C$54</formula>
+      <formula>$D$54</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="46" stopIfTrue="1" operator="between">
       <formula>$C$55</formula>
       <formula>$D$55</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="48" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>$C$53</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="47" stopIfTrue="1" operator="between">
-      <formula>$C$54</formula>
-      <formula>$D$54</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="45" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="170" priority="45" stopIfTrue="1" operator="between">
       <formula>$C$56</formula>
       <formula>$D$56</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="44" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="169" priority="44" stopIfTrue="1" operator="between">
       <formula>$C$57</formula>
       <formula>$D$57</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="43" stopIfTrue="1" operator="between">
+      <formula>$C$58</formula>
+      <formula>$D$58</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K40">
@@ -22753,13 +22753,13 @@
       <formula>$C$56</formula>
       <formula>$D$56</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="37" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="163" priority="38" stopIfTrue="1" operator="between">
+      <formula>$C$57</formula>
+      <formula>$D$57</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="37" stopIfTrue="1" operator="between">
       <formula>$C$58</formula>
       <formula>$D$58</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="38" stopIfTrue="1" operator="between">
-      <formula>$C$57</formula>
-      <formula>$D$57</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M39">
@@ -22788,24 +22788,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O39">
-    <cfRule type="cellIs" dxfId="155" priority="30" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>$C$53</formula>
+    <cfRule type="cellIs" dxfId="155" priority="26" stopIfTrue="1" operator="between">
+      <formula>$C$57</formula>
+      <formula>$D$57</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="29" stopIfTrue="1" operator="between">
-      <formula>$C$54</formula>
-      <formula>$D$54</formula>
+    <cfRule type="cellIs" dxfId="154" priority="27" stopIfTrue="1" operator="between">
+      <formula>$C$56</formula>
+      <formula>$D$56</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="153" priority="28" stopIfTrue="1" operator="between">
       <formula>$C$55</formula>
       <formula>$D$55</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="27" stopIfTrue="1" operator="between">
-      <formula>$C$56</formula>
-      <formula>$D$56</formula>
+    <cfRule type="cellIs" dxfId="152" priority="29" stopIfTrue="1" operator="between">
+      <formula>$C$54</formula>
+      <formula>$D$54</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="26" stopIfTrue="1" operator="between">
-      <formula>$C$57</formula>
-      <formula>$D$57</formula>
+    <cfRule type="cellIs" dxfId="151" priority="30" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>$C$53</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="150" priority="25" stopIfTrue="1" operator="between">
       <formula>$C$58</formula>
@@ -22838,20 +22838,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z39">
-    <cfRule type="cellIs" dxfId="143" priority="15" stopIfTrue="1" operator="between">
-      <formula>$C$56</formula>
-      <formula>$D$56</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="18" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="143" priority="18" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>$C$53</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="17" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="142" priority="17" stopIfTrue="1" operator="between">
       <formula>$C$54</formula>
       <formula>$D$54</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="16" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="141" priority="16" stopIfTrue="1" operator="between">
       <formula>$C$55</formula>
       <formula>$D$55</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="15" stopIfTrue="1" operator="between">
+      <formula>$C$56</formula>
+      <formula>$D$56</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="139" priority="14" stopIfTrue="1" operator="between">
       <formula>$C$57</formula>
@@ -22863,24 +22863,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AB39 AD2:AD39">
-    <cfRule type="cellIs" dxfId="137" priority="8" stopIfTrue="1" operator="between">
-      <formula>$C$57</formula>
-      <formula>$D$57</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="12" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="137" priority="12" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>$C$53</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="11" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="136" priority="11" stopIfTrue="1" operator="between">
       <formula>$C$54</formula>
       <formula>$D$54</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="10" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="135" priority="10" stopIfTrue="1" operator="between">
       <formula>$C$55</formula>
       <formula>$D$55</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="9" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="134" priority="9" stopIfTrue="1" operator="between">
       <formula>$C$56</formula>
       <formula>$D$56</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="8" stopIfTrue="1" operator="between">
+      <formula>$C$57</formula>
+      <formula>$D$57</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="132" priority="7" stopIfTrue="1" operator="between">
       <formula>$C$58</formula>
@@ -22888,24 +22888,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG2:AG39 AI2:AI39 AK2:AK39">
-    <cfRule type="cellIs" dxfId="131" priority="2" stopIfTrue="1" operator="between">
-      <formula>$C$57</formula>
-      <formula>$D$57</formula>
+    <cfRule type="cellIs" dxfId="131" priority="6" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>$C$53</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="3" stopIfTrue="1" operator="between">
-      <formula>$C$56</formula>
-      <formula>$D$56</formula>
+    <cfRule type="cellIs" dxfId="130" priority="5" stopIfTrue="1" operator="between">
+      <formula>$C$54</formula>
+      <formula>$D$54</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="129" priority="4" stopIfTrue="1" operator="between">
       <formula>$C$55</formula>
       <formula>$D$55</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="5" stopIfTrue="1" operator="between">
-      <formula>$C$54</formula>
-      <formula>$D$54</formula>
+    <cfRule type="cellIs" dxfId="128" priority="3" stopIfTrue="1" operator="between">
+      <formula>$C$56</formula>
+      <formula>$D$56</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="6" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>$C$53</formula>
+    <cfRule type="cellIs" dxfId="127" priority="2" stopIfTrue="1" operator="between">
+      <formula>$C$57</formula>
+      <formula>$D$57</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="126" priority="1" stopIfTrue="1" operator="between">
       <formula>$C$58</formula>
@@ -22920,15 +22920,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F527609-A1E4-4507-90B4-906FDAA9FF36}">
   <dimension ref="A1:AM39"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
@@ -22936,38 +22936,38 @@
     <col min="8" max="8" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="26.5" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.5" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="14" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="12" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.5" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="31.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
@@ -22996,97 +22996,97 @@
         <v>40</v>
       </c>
       <c r="J1" s="114" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="114" t="s">
+      <c r="L1" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="114" t="s">
+      <c r="M1" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="114" t="s">
+      <c r="N1" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="114" t="s">
+      <c r="O1" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="114" t="s">
+      <c r="P1" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="114" t="s">
+      <c r="Q1" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="114" t="s">
+      <c r="R1" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="114" t="s">
+      <c r="S1" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="114" t="s">
+      <c r="T1" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="114" t="s">
+      <c r="U1" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="114" t="s">
+      <c r="V1" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="V1" s="114" t="s">
+      <c r="W1" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="114" t="s">
+      <c r="X1" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="X1" s="114" t="s">
+      <c r="Y1" s="114" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="114" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="114" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z1" s="114" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA1" s="114" t="s">
+      <c r="AB1" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" s="114" t="s">
+      <c r="AC1" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" s="114" t="s">
+      <c r="AD1" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="114" t="s">
+      <c r="AE1" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="AE1" s="114" t="s">
+      <c r="AF1" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="AF1" s="114" t="s">
+      <c r="AG1" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="AG1" s="114" t="s">
+      <c r="AH1" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="AH1" s="114" t="s">
+      <c r="AI1" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="AI1" s="114" t="s">
+      <c r="AJ1" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="AJ1" s="114" t="s">
+      <c r="AK1" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="AK1" s="114" t="s">
+      <c r="AL1" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="AL1" s="114" t="s">
+      <c r="AM1" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="AM1" s="114" t="s">
-        <v>68</v>
-      </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A2" s="101">
         <v>91</v>
       </c>
@@ -23221,7 +23221,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A3" s="104" t="s">
         <v>3</v>
       </c>
@@ -23356,7 +23356,7 @@
         <v>59589</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A4" s="104">
         <v>81</v>
       </c>
@@ -23491,7 +23491,7 @@
         <v>2990</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A5" s="104" t="s">
         <v>6</v>
       </c>
@@ -23626,7 +23626,7 @@
         <v>14210</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A6" s="104" t="s">
         <v>8</v>
       </c>
@@ -23761,12 +23761,12 @@
         <v>16584</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A7" s="104">
         <v>11</v>
       </c>
       <c r="B7" s="106" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="68">
         <v>104937</v>
@@ -23896,7 +23896,7 @@
         <v>58709</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A8" s="104">
         <v>13</v>
       </c>
@@ -24031,7 +24031,7 @@
         <v>14316</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A9" s="104">
         <v>13001</v>
       </c>
@@ -24166,12 +24166,12 @@
         <v>16258</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A10" s="104">
         <v>15</v>
       </c>
       <c r="B10" s="108" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="68">
         <v>14411</v>
@@ -24301,7 +24301,7 @@
         <v>12098</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A11" s="104">
         <v>17</v>
       </c>
@@ -24436,12 +24436,12 @@
         <v>6903</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A12" s="104">
         <v>18</v>
       </c>
       <c r="B12" s="106" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="68">
         <v>7880</v>
@@ -24571,7 +24571,7 @@
         <v>6474</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A13" s="104">
         <v>85</v>
       </c>
@@ -24706,7 +24706,7 @@
         <v>5376</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A14" s="104">
         <v>19</v>
       </c>
@@ -24841,7 +24841,7 @@
         <v>15132</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A15" s="104">
         <v>20</v>
       </c>
@@ -24976,12 +24976,12 @@
         <v>18907</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A16" s="104">
         <v>25</v>
       </c>
       <c r="B16" s="106" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="68">
         <v>10788</v>
@@ -25111,12 +25111,12 @@
         <v>6777</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A17" s="104">
         <v>23</v>
       </c>
       <c r="B17" s="106" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="68">
         <v>31959</v>
@@ -25246,7 +25246,7 @@
         <v>23031</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A18" s="104">
         <v>25</v>
       </c>
@@ -25381,12 +25381,12 @@
         <v>19870</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A19" s="104">
         <v>94</v>
       </c>
       <c r="B19" s="106" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" s="68">
         <v>842</v>
@@ -25516,7 +25516,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A20" s="104">
         <v>95</v>
       </c>
@@ -25651,7 +25651,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A21" s="104">
         <v>41</v>
       </c>
@@ -25786,7 +25786,7 @@
         <v>14210</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A22" s="104">
         <v>44</v>
       </c>
@@ -25921,7 +25921,7 @@
         <v>14483</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A23" s="104">
         <v>47</v>
       </c>
@@ -26056,7 +26056,7 @@
         <v>12613</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A24" s="104">
         <v>47001</v>
       </c>
@@ -26191,7 +26191,7 @@
         <v>6434</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A25" s="104">
         <v>50</v>
       </c>
@@ -26326,7 +26326,7 @@
         <v>9477</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A26" s="104">
         <v>52</v>
       </c>
@@ -26461,7 +26461,7 @@
         <v>15043</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A27" s="104">
         <v>54</v>
       </c>
@@ -26596,7 +26596,7 @@
         <v>18482</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A28" s="104">
         <v>86</v>
       </c>
@@ -26731,12 +26731,12 @@
         <v>3438</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A29" s="104">
         <v>63</v>
       </c>
       <c r="B29" s="106" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" s="68">
         <v>5929</v>
@@ -26866,7 +26866,7 @@
         <v>5162</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A30" s="104">
         <v>66</v>
       </c>
@@ -27001,12 +27001,12 @@
         <v>6824</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A31" s="104">
         <v>88</v>
       </c>
       <c r="B31" s="106" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" s="68">
         <v>895</v>
@@ -27136,7 +27136,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A32" s="104">
         <v>68</v>
       </c>
@@ -27271,7 +27271,7 @@
         <v>24207</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A33" s="104">
         <v>70</v>
       </c>
@@ -27406,7 +27406,7 @@
         <v>12478</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A34" s="104">
         <v>73</v>
       </c>
@@ -27541,12 +27541,12 @@
         <v>11189</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A35" s="104">
         <v>76</v>
       </c>
       <c r="B35" s="108" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="68">
         <v>51379</v>
@@ -27676,7 +27676,7 @@
         <v>31734</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A36" s="104" t="s">
         <v>30</v>
       </c>
@@ -27811,12 +27811,12 @@
         <v>3951</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A37" s="104">
         <v>97</v>
       </c>
       <c r="B37" s="108" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" s="68">
         <v>828</v>
@@ -27946,7 +27946,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A38" s="110">
         <v>99</v>
       </c>
@@ -28081,7 +28081,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:39" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="103"/>
       <c r="B39" s="112" t="s">
         <v>33</v>
@@ -28237,28 +28237,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E39">
-    <cfRule type="cellIs" dxfId="125" priority="65" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="125" priority="66" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>$C$53</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="65" stopIfTrue="1" operator="between">
       <formula>$C$54</formula>
       <formula>$D$54</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="64" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="123" priority="64" stopIfTrue="1" operator="between">
       <formula>$C$55</formula>
       <formula>$D$55</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="63" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="122" priority="63" stopIfTrue="1" operator="between">
       <formula>$C$56</formula>
       <formula>$D$56</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="62" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="121" priority="62" stopIfTrue="1" operator="between">
       <formula>$C$57</formula>
       <formula>$D$57</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="61" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="120" priority="61" stopIfTrue="1" operator="between">
       <formula>$C$58</formula>
       <formula>$D$58</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="66" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>$C$53</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G39 I2:I39">
@@ -28287,24 +28287,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K39">
-    <cfRule type="cellIs" dxfId="113" priority="50" stopIfTrue="1" operator="between">
-      <formula>$C$57</formula>
-      <formula>$D$57</formula>
+    <cfRule type="cellIs" dxfId="113" priority="51" stopIfTrue="1" operator="between">
+      <formula>$C$56</formula>
+      <formula>$D$56</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="54" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>$C$53</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="53" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="112" priority="53" stopIfTrue="1" operator="between">
       <formula>$C$54</formula>
       <formula>$D$54</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="52" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="111" priority="52" stopIfTrue="1" operator="between">
       <formula>$C$55</formula>
       <formula>$D$55</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="51" stopIfTrue="1" operator="between">
-      <formula>$C$56</formula>
-      <formula>$D$56</formula>
+    <cfRule type="cellIs" dxfId="110" priority="54" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>$C$53</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="50" stopIfTrue="1" operator="between">
+      <formula>$C$57</formula>
+      <formula>$D$57</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="108" priority="49" stopIfTrue="1" operator="between">
       <formula>$C$58</formula>
@@ -28337,12 +28337,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R39">
-    <cfRule type="cellIs" dxfId="101" priority="41" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="101" priority="42" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>$C$53</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="41" stopIfTrue="1" operator="between">
       <formula>$C$54</formula>
       <formula>$D$54</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="42" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>$C$53</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="99" priority="40" stopIfTrue="1" operator="between">
       <formula>$C$55</formula>
@@ -28362,9 +28362,9 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z39">
-    <cfRule type="cellIs" dxfId="95" priority="31" stopIfTrue="1" operator="between">
-      <formula>$C$58</formula>
-      <formula>$D$58</formula>
+    <cfRule type="cellIs" dxfId="95" priority="34" stopIfTrue="1" operator="between">
+      <formula>$C$55</formula>
+      <formula>$D$55</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="94" priority="32" stopIfTrue="1" operator="between">
       <formula>$C$57</formula>
@@ -28374,9 +28374,9 @@
       <formula>$C$56</formula>
       <formula>$D$56</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="34" stopIfTrue="1" operator="between">
-      <formula>$C$55</formula>
-      <formula>$D$55</formula>
+    <cfRule type="cellIs" dxfId="92" priority="31" stopIfTrue="1" operator="between">
+      <formula>$C$58</formula>
+      <formula>$D$58</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="91" priority="35" stopIfTrue="1" operator="between">
       <formula>$C$54</formula>
@@ -28402,13 +28402,13 @@
       <formula>$C$56</formula>
       <formula>$D$56</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="25" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="85" priority="26" stopIfTrue="1" operator="between">
+      <formula>$C$57</formula>
+      <formula>$D$57</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="25" stopIfTrue="1" operator="between">
       <formula>$C$58</formula>
       <formula>$D$58</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="26" stopIfTrue="1" operator="between">
-      <formula>$C$57</formula>
-      <formula>$D$57</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD2:AD39">
@@ -28440,25 +28440,25 @@
     <cfRule type="cellIs" dxfId="77" priority="18" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>$C$53</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="16" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="76" priority="17" stopIfTrue="1" operator="between">
+      <formula>$C$54</formula>
+      <formula>$D$54</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="16" stopIfTrue="1" operator="between">
       <formula>$C$55</formula>
       <formula>$D$55</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="15" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="74" priority="15" stopIfTrue="1" operator="between">
       <formula>$C$56</formula>
       <formula>$D$56</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="14" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="73" priority="14" stopIfTrue="1" operator="between">
       <formula>$C$57</formula>
       <formula>$D$57</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="13" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="72" priority="13" stopIfTrue="1" operator="between">
       <formula>$C$58</formula>
       <formula>$D$58</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="17" stopIfTrue="1" operator="between">
-      <formula>$C$54</formula>
-      <formula>$D$54</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI2:AI39">
@@ -28487,28 +28487,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK2:AK39">
-    <cfRule type="cellIs" dxfId="65" priority="1" stopIfTrue="1" operator="between">
-      <formula>$C$58</formula>
-      <formula>$D$58</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="6" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="65" priority="6" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>$C$53</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="5" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="64" priority="5" stopIfTrue="1" operator="between">
       <formula>$C$54</formula>
       <formula>$D$54</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="4" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="63" priority="4" stopIfTrue="1" operator="between">
       <formula>$C$55</formula>
       <formula>$D$55</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="62" priority="3" stopIfTrue="1" operator="between">
       <formula>$C$56</formula>
       <formula>$D$56</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="61" priority="2" stopIfTrue="1" operator="between">
       <formula>$C$57</formula>
       <formula>$D$57</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="1" stopIfTrue="1" operator="between">
+      <formula>$C$58</formula>
+      <formula>$D$58</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28519,54 +28519,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CDFBB81-4A17-48C4-9F69-931DC572475E}">
   <dimension ref="A1:AM39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="32" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.1640625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="27" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="25" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="14" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="19" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="21" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
@@ -28595,97 +28595,97 @@
         <v>40</v>
       </c>
       <c r="J1" s="114" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="114" t="s">
+      <c r="L1" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="114" t="s">
+      <c r="M1" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="114" t="s">
+      <c r="N1" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="114" t="s">
+      <c r="O1" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="114" t="s">
+      <c r="P1" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="114" t="s">
+      <c r="Q1" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="114" t="s">
+      <c r="R1" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="114" t="s">
+      <c r="S1" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="114" t="s">
+      <c r="T1" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="114" t="s">
+      <c r="U1" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="114" t="s">
+      <c r="V1" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="V1" s="114" t="s">
+      <c r="W1" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="114" t="s">
+      <c r="X1" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="X1" s="114" t="s">
+      <c r="Y1" s="114" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="114" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="114" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z1" s="114" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA1" s="114" t="s">
+      <c r="AB1" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" s="114" t="s">
+      <c r="AC1" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" s="114" t="s">
+      <c r="AD1" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="114" t="s">
+      <c r="AE1" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="AE1" s="114" t="s">
+      <c r="AF1" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="AF1" s="114" t="s">
+      <c r="AG1" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="AG1" s="114" t="s">
+      <c r="AH1" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="AH1" s="114" t="s">
+      <c r="AI1" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="AI1" s="114" t="s">
+      <c r="AJ1" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="AJ1" s="114" t="s">
+      <c r="AK1" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="AK1" s="114" t="s">
+      <c r="AL1" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="AL1" s="114" t="s">
+      <c r="AM1" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="AM1" s="114" t="s">
-        <v>68</v>
-      </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A2" s="101">
         <v>91</v>
       </c>
@@ -28820,7 +28820,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A3" s="104" t="s">
         <v>3</v>
       </c>
@@ -28955,7 +28955,7 @@
         <v>56014</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A4" s="104">
         <v>81</v>
       </c>
@@ -29090,7 +29090,7 @@
         <v>3139</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A5" s="104" t="s">
         <v>6</v>
       </c>
@@ -29225,7 +29225,7 @@
         <v>11419</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A6" s="104" t="s">
         <v>8</v>
       </c>
@@ -29360,12 +29360,12 @@
         <v>14985</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A7" s="104">
         <v>11</v>
       </c>
       <c r="B7" s="106" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="55">
         <v>98914</v>
@@ -29495,7 +29495,7 @@
         <v>70933</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A8" s="104">
         <v>13</v>
       </c>
@@ -29630,7 +29630,7 @@
         <v>13634</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A9" s="104">
         <v>13001</v>
       </c>
@@ -29765,12 +29765,12 @@
         <v>14300</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A10" s="104">
         <v>15</v>
       </c>
       <c r="B10" s="108" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="55">
         <v>13869</v>
@@ -29900,7 +29900,7 @@
         <v>10427</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A11" s="104">
         <v>17</v>
       </c>
@@ -30035,12 +30035,12 @@
         <v>7151</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A12" s="104">
         <v>18</v>
       </c>
       <c r="B12" s="106" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="55">
         <v>7487</v>
@@ -30170,7 +30170,7 @@
         <v>5212</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A13" s="104">
         <v>85</v>
       </c>
@@ -30305,7 +30305,7 @@
         <v>4833</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A14" s="104">
         <v>19</v>
       </c>
@@ -30440,7 +30440,7 @@
         <v>15052</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A15" s="104">
         <v>20</v>
       </c>
@@ -30575,12 +30575,12 @@
         <v>17623</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A16" s="104">
         <v>25</v>
       </c>
       <c r="B16" s="106" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="55">
         <v>10459</v>
@@ -30710,12 +30710,12 @@
         <v>6098</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A17" s="104">
         <v>23</v>
       </c>
       <c r="B17" s="106" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="55">
         <v>30290</v>
@@ -30845,7 +30845,7 @@
         <v>21026</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A18" s="104">
         <v>25</v>
       </c>
@@ -30980,12 +30980,12 @@
         <v>22994</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A19" s="104">
         <v>94</v>
       </c>
       <c r="B19" s="106" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" s="55">
         <v>802</v>
@@ -31115,7 +31115,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A20" s="104">
         <v>95</v>
       </c>
@@ -31250,7 +31250,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A21" s="104">
         <v>41</v>
       </c>
@@ -31385,7 +31385,7 @@
         <v>14178</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A22" s="104">
         <v>44</v>
       </c>
@@ -31520,7 +31520,7 @@
         <v>11445</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A23" s="104">
         <v>47</v>
       </c>
@@ -31655,7 +31655,7 @@
         <v>12288</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A24" s="104">
         <v>47001</v>
       </c>
@@ -31790,7 +31790,7 @@
         <v>5718</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A25" s="104">
         <v>50</v>
       </c>
@@ -31925,7 +31925,7 @@
         <v>10789</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A26" s="104">
         <v>52</v>
       </c>
@@ -32060,7 +32060,7 @@
         <v>13686</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A27" s="104">
         <v>54</v>
       </c>
@@ -32195,7 +32195,7 @@
         <v>15959</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A28" s="104">
         <v>86</v>
       </c>
@@ -32330,12 +32330,12 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A29" s="104">
         <v>63</v>
       </c>
       <c r="B29" s="106" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" s="55">
         <v>5600</v>
@@ -32465,7 +32465,7 @@
         <v>3992</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A30" s="104">
         <v>66</v>
       </c>
@@ -32600,12 +32600,12 @@
         <v>6518</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A31" s="104">
         <v>88</v>
       </c>
       <c r="B31" s="106" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" s="55">
         <v>853</v>
@@ -32735,7 +32735,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A32" s="104">
         <v>68</v>
       </c>
@@ -32870,7 +32870,7 @@
         <v>20387</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A33" s="104">
         <v>70</v>
       </c>
@@ -33005,7 +33005,7 @@
         <v>11633</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A34" s="104">
         <v>73</v>
       </c>
@@ -33140,12 +33140,12 @@
         <v>11274</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A35" s="104">
         <v>76</v>
       </c>
       <c r="B35" s="108" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="55">
         <v>51369</v>
@@ -33275,7 +33275,7 @@
         <v>36045</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A36" s="104" t="s">
         <v>30</v>
       </c>
@@ -33410,12 +33410,12 @@
         <v>3285</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A37" s="104">
         <v>97</v>
       </c>
       <c r="B37" s="108" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" s="55">
         <v>789</v>
@@ -33545,7 +33545,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A38" s="110">
         <v>99</v>
       </c>
@@ -33680,7 +33680,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:39" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="115"/>
       <c r="B39" s="112" t="s">
         <v>33</v>
@@ -33836,37 +33836,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E39">
-    <cfRule type="cellIs" dxfId="59" priority="59" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="59" priority="60" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>$C$53</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="59" stopIfTrue="1" operator="between">
       <formula>$C$54</formula>
       <formula>$D$54</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="58" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="57" priority="58" stopIfTrue="1" operator="between">
       <formula>$C$55</formula>
       <formula>$D$55</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="57" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="56" priority="57" stopIfTrue="1" operator="between">
       <formula>$C$56</formula>
       <formula>$D$56</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="56" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="55" priority="56" stopIfTrue="1" operator="between">
       <formula>$C$57</formula>
       <formula>$D$57</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="55" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="54" priority="55" stopIfTrue="1" operator="between">
       <formula>$C$58</formula>
       <formula>$D$58</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="60" stopIfTrue="1" operator="greaterThanOrEqual">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G39 I2:I39">
+    <cfRule type="cellIs" dxfId="53" priority="54" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>$C$53</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G39 I2:I39">
-    <cfRule type="cellIs" dxfId="53" priority="53" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="52" priority="53" stopIfTrue="1" operator="between">
       <formula>$C$54</formula>
       <formula>$D$54</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="54" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>$C$53</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="51" priority="52" stopIfTrue="1" operator="between">
       <formula>$C$55</formula>
@@ -33886,28 +33886,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K39">
-    <cfRule type="cellIs" dxfId="47" priority="43" stopIfTrue="1" operator="between">
-      <formula>$C$58</formula>
-      <formula>$D$58</formula>
+    <cfRule type="cellIs" dxfId="47" priority="48" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>$C$53</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="46" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="46" priority="47" stopIfTrue="1" operator="between">
+      <formula>$C$54</formula>
+      <formula>$D$54</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="46" stopIfTrue="1" operator="between">
       <formula>$C$55</formula>
       <formula>$D$55</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="48" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>$C$53</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="47" stopIfTrue="1" operator="between">
-      <formula>$C$54</formula>
-      <formula>$D$54</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="45" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="44" priority="45" stopIfTrue="1" operator="between">
       <formula>$C$56</formula>
       <formula>$D$56</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="44" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="43" priority="44" stopIfTrue="1" operator="between">
       <formula>$C$57</formula>
       <formula>$D$57</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="43" stopIfTrue="1" operator="between">
+      <formula>$C$58</formula>
+      <formula>$D$58</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M39 O2:O39">
@@ -33926,13 +33926,13 @@
       <formula>$C$56</formula>
       <formula>$D$56</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="37" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="37" priority="38" stopIfTrue="1" operator="between">
+      <formula>$C$57</formula>
+      <formula>$D$57</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="37" stopIfTrue="1" operator="between">
       <formula>$C$58</formula>
       <formula>$D$58</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="38" stopIfTrue="1" operator="between">
-      <formula>$C$57</formula>
-      <formula>$D$57</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R39">
@@ -33961,24 +33961,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T39">
-    <cfRule type="cellIs" dxfId="29" priority="30" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>$C$53</formula>
+    <cfRule type="cellIs" dxfId="29" priority="26" stopIfTrue="1" operator="between">
+      <formula>$C$57</formula>
+      <formula>$D$57</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" stopIfTrue="1" operator="between">
-      <formula>$C$54</formula>
-      <formula>$D$54</formula>
+    <cfRule type="cellIs" dxfId="28" priority="27" stopIfTrue="1" operator="between">
+      <formula>$C$56</formula>
+      <formula>$D$56</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="27" priority="28" stopIfTrue="1" operator="between">
       <formula>$C$55</formula>
       <formula>$D$55</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="27" stopIfTrue="1" operator="between">
-      <formula>$C$56</formula>
-      <formula>$D$56</formula>
+    <cfRule type="cellIs" dxfId="26" priority="29" stopIfTrue="1" operator="between">
+      <formula>$C$54</formula>
+      <formula>$D$54</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="between">
-      <formula>$C$57</formula>
-      <formula>$D$57</formula>
+    <cfRule type="cellIs" dxfId="25" priority="30" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>$C$53</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="24" priority="25" stopIfTrue="1" operator="between">
       <formula>$C$58</formula>
@@ -34011,20 +34011,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AB39">
-    <cfRule type="cellIs" dxfId="17" priority="15" stopIfTrue="1" operator="between">
-      <formula>$C$56</formula>
-      <formula>$D$56</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>$C$53</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="between">
       <formula>$C$54</formula>
       <formula>$D$54</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="between">
       <formula>$C$55</formula>
       <formula>$D$55</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="between">
+      <formula>$C$56</formula>
+      <formula>$D$56</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="between">
       <formula>$C$57</formula>
@@ -34036,24 +34036,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD2:AD39">
-    <cfRule type="cellIs" dxfId="11" priority="8" stopIfTrue="1" operator="between">
-      <formula>$C$57</formula>
-      <formula>$D$57</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>$C$53</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="between">
       <formula>$C$54</formula>
       <formula>$D$54</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="between">
       <formula>$C$55</formula>
       <formula>$D$55</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="between">
       <formula>$C$56</formula>
       <formula>$D$56</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="between">
+      <formula>$C$57</formula>
+      <formula>$D$57</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="between">
       <formula>$C$58</formula>
@@ -34061,24 +34061,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG2:AG39 AI2:AI39 AK2:AK39">
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="between">
-      <formula>$C$57</formula>
-      <formula>$D$57</formula>
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>$C$53</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="between">
-      <formula>$C$56</formula>
-      <formula>$D$56</formula>
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="between">
+      <formula>$C$54</formula>
+      <formula>$D$54</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="between">
       <formula>$C$55</formula>
       <formula>$D$55</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="between">
-      <formula>$C$54</formula>
-      <formula>$D$54</formula>
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="between">
+      <formula>$C$56</formula>
+      <formula>$D$56</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>$C$53</formula>
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="between">
+      <formula>$C$57</formula>
+      <formula>$D$57</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="between">
       <formula>$C$58</formula>
@@ -34090,6 +34090,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005ABF0FCF354D744B9D0164B4B8106CEE" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="94c3e4d14d260ca237f8e492db101d3f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f50dab7f58e823f96f7557b20ba883b6" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -34221,19 +34234,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -34244,6 +34244,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67758DD8-2A33-4159-86BB-58E6160321E6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93447D63-4A4F-4A30-94E0-44CD64A3DC9A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF807C50-CDE4-43FD-A587-C510A2E03D18}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34261,23 +34278,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93447D63-4A4F-4A30-94E0-44CD64A3DC9A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67758DD8-2A33-4159-86BB-58E6160321E6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A0BC496-20E6-4CBB-AF46-9E15DA821875}">
   <ds:schemaRefs>
